--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1517621.909835166</v>
+        <v>1514094.585390656</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28006371.16448381</v>
+        <v>28006371.16448379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5722104.444737348</v>
+        <v>5722104.444737352</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>38.50991039768402</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>131.0281127468384</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T11" t="n">
         <v>210.2770796227834</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>92.87154203440296</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I13" t="n">
         <v>72.76475354193595</v>
@@ -1578,13 +1578,13 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T13" t="n">
         <v>237.2110085144546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>117.5895701846124</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>93.6749477690189</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>331.7472970040496</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.3678052820416</v>
@@ -1660,7 +1660,7 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T14" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.6171309891995</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.76475354193595</v>
+        <v>12.04486942202444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S16" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.2110085144546</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.24946112150047</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H17" t="n">
-        <v>30.86509927734877</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>238.4329409345209</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>105.7793937805659</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U19" t="n">
         <v>277.3354344940787</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>211.9101501077559</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>336.7995362559943</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>100.7784052599366</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>62.14404918512428</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>92.4003478800099</v>
       </c>
       <c r="G22" t="n">
         <v>163.7296254640092</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I22" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.2110085144546</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174.7084259296236</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2371,22 +2371,22 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>168.6906693781683</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2560,16 +2560,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>377.4732843622349</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H26" t="n">
         <v>275.145931902475</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>28.16000205781041</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T26" t="n">
         <v>210.2770796227834</v>
@@ -2620,10 +2620,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T29" t="n">
         <v>210.2770796227834</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>377.8929363977777</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>297.1527478391241</v>
       </c>
     </row>
     <row r="30">
@@ -3037,16 +3037,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>362.0393055051163</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H32" t="n">
-        <v>275.145931902475</v>
+        <v>34.20447718348292</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>210.2770796227834</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3271,16 +3271,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>385.2647550310329</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>342.8039586156182</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.85237386271591</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.3630351679486</v>
@@ -3483,10 +3483,10 @@
         <v>277.3354344940787</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>59.97411461315487</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>59.3923632164781</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U38" t="n">
-        <v>133.1176797346279</v>
+        <v>191.7064251675377</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>41.67289952538813</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>163.7296254640092</v>
       </c>
       <c r="H40" t="n">
-        <v>134.669673945858</v>
+        <v>128.3323337488256</v>
       </c>
       <c r="I40" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.3630351679486</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.2110085144546</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>236.8915585336549</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>340.901315657457</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>59.3923632164781</v>
       </c>
       <c r="T41" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3909,7 +3909,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.7296254640092</v>
@@ -3918,7 +3918,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>11.79858594009613</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V43" t="n">
-        <v>191.223227101631</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.4982772806332</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>278.3217252727285</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>38.32775568842119</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7296254640092</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.669673945858</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.684819015232499</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.2110085144546</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.83250264269766</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1025.641097277351</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="C11" t="n">
-        <v>598.7403672906514</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="D11" t="n">
-        <v>598.7403672906514</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="E11" t="n">
-        <v>466.3887382534409</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="F11" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="G11" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H11" t="n">
         <v>41.2645564428411</v>
       </c>
       <c r="I11" t="n">
-        <v>80.64296560125308</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J11" t="n">
-        <v>213.5062128414245</v>
+        <v>213.5062128414249</v>
       </c>
       <c r="K11" t="n">
-        <v>420.8787884255851</v>
+        <v>420.8787884255855</v>
       </c>
       <c r="L11" t="n">
-        <v>684.1393418771315</v>
+        <v>684.1393418771319</v>
       </c>
       <c r="M11" t="n">
         <v>982.2137160547602</v>
@@ -5068,25 +5068,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S11" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T11" t="n">
-        <v>1850.826731613991</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="U11" t="n">
-        <v>1850.826731613991</v>
+        <v>1532.635323325428</v>
       </c>
       <c r="V11" t="n">
-        <v>1850.826731613991</v>
+        <v>1175.145908451677</v>
       </c>
       <c r="W11" t="n">
-        <v>1850.826731613991</v>
+        <v>1175.145908451677</v>
       </c>
       <c r="X11" t="n">
-        <v>1850.826731613991</v>
+        <v>763.4259096194246</v>
       </c>
       <c r="Y11" t="n">
-        <v>1445.489461568881</v>
+        <v>358.0886395743149</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I12" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J12" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K12" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L12" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M12" t="n">
-        <v>738.8648806147569</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N12" t="n">
-        <v>983.3283570578612</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O12" t="n">
-        <v>1493.97724303802</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P12" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q12" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R12" t="n">
         <v>1815.226133375711</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>881.9332619807899</v>
+        <v>760.8368243716566</v>
       </c>
       <c r="C13" t="n">
-        <v>709.9606988597059</v>
+        <v>588.8642612505726</v>
       </c>
       <c r="D13" t="n">
-        <v>546.6439259864766</v>
+        <v>588.8642612505726</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4357201393301</v>
+        <v>422.6560554034261</v>
       </c>
       <c r="F13" t="n">
-        <v>208.5739459138905</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="G13" t="n">
-        <v>208.5739459138905</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="H13" t="n">
         <v>114.7643074953017</v>
@@ -5205,19 +5205,19 @@
         <v>237.995409597585</v>
       </c>
       <c r="L13" t="n">
-        <v>503.8818054713696</v>
+        <v>343.5785434372059</v>
       </c>
       <c r="M13" t="n">
-        <v>1014.530691451528</v>
+        <v>854.2274294173645</v>
       </c>
       <c r="N13" t="n">
-        <v>1523.032951526135</v>
+        <v>1306.713334418341</v>
       </c>
       <c r="O13" t="n">
-        <v>1621.768387491799</v>
+        <v>1783.151094687208</v>
       </c>
       <c r="P13" t="n">
-        <v>2015.912244298022</v>
+        <v>1864.538746920123</v>
       </c>
       <c r="Q13" t="n">
         <v>2063.227822142055</v>
@@ -5226,25 +5226,25 @@
         <v>2055.465378692325</v>
       </c>
       <c r="S13" t="n">
-        <v>2055.465378692325</v>
+        <v>1900.553221957024</v>
       </c>
       <c r="T13" t="n">
-        <v>1815.858299384795</v>
+        <v>1660.946142649494</v>
       </c>
       <c r="U13" t="n">
-        <v>1815.858299384795</v>
+        <v>1380.809340130222</v>
       </c>
       <c r="V13" t="n">
-        <v>1815.858299384795</v>
+        <v>1380.809340130222</v>
       </c>
       <c r="W13" t="n">
-        <v>1541.005895557308</v>
+        <v>1105.956936302735</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.441999003114</v>
+        <v>987.1795926819145</v>
       </c>
       <c r="Y13" t="n">
-        <v>1072.099230692856</v>
+        <v>760.8368243716566</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>778.7545587520242</v>
+        <v>1292.925839617096</v>
       </c>
       <c r="C14" t="n">
-        <v>778.7545587520242</v>
+        <v>1292.925839617096</v>
       </c>
       <c r="D14" t="n">
-        <v>778.7545587520242</v>
+        <v>869.6332188020963</v>
       </c>
       <c r="E14" t="n">
-        <v>778.7545587520242</v>
+        <v>443.6562789499538</v>
       </c>
       <c r="F14" t="n">
         <v>443.6562789499538</v>
@@ -5275,16 +5275,16 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I14" t="n">
-        <v>80.64296560125308</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J14" t="n">
-        <v>213.5062128414245</v>
+        <v>213.5062128414249</v>
       </c>
       <c r="K14" t="n">
-        <v>420.8787884255851</v>
+        <v>420.8787884255855</v>
       </c>
       <c r="L14" t="n">
-        <v>684.1393418771315</v>
+        <v>684.1393418771319</v>
       </c>
       <c r="M14" t="n">
         <v>982.2137160547602</v>
@@ -5308,22 +5308,22 @@
         <v>2003.235536064805</v>
       </c>
       <c r="T14" t="n">
-        <v>1790.834445536741</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U14" t="n">
-        <v>1532.635323325428</v>
+        <v>1745.036413853492</v>
       </c>
       <c r="V14" t="n">
-        <v>1175.145908451677</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="W14" t="n">
-        <v>778.7545587520242</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="X14" t="n">
-        <v>778.7545587520242</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="Y14" t="n">
-        <v>778.7545587520242</v>
+        <v>1387.546998979741</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I15" t="n">
-        <v>60.41309749025406</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J15" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K15" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L15" t="n">
         <v>688.1536069610606</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.5345205057728</v>
+        <v>562.6488886237421</v>
       </c>
       <c r="C16" t="n">
-        <v>781.5345205057728</v>
+        <v>390.6763255026581</v>
       </c>
       <c r="D16" t="n">
-        <v>618.2177476325435</v>
+        <v>390.6763255026581</v>
       </c>
       <c r="E16" t="n">
-        <v>452.009541785397</v>
+        <v>390.6763255026581</v>
       </c>
       <c r="F16" t="n">
-        <v>280.1477675599574</v>
+        <v>218.8145512772185</v>
       </c>
       <c r="G16" t="n">
-        <v>114.7643074953017</v>
+        <v>53.43109121256276</v>
       </c>
       <c r="H16" t="n">
-        <v>114.7643074953017</v>
+        <v>53.43109121256276</v>
       </c>
       <c r="I16" t="n">
         <v>41.2645564428411</v>
@@ -5439,16 +5439,16 @@
         <v>159.284049374258</v>
       </c>
       <c r="K16" t="n">
-        <v>237.995409597585</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L16" t="n">
-        <v>343.5785434372059</v>
+        <v>967.2500461423929</v>
       </c>
       <c r="M16" t="n">
-        <v>485.4548697704262</v>
+        <v>1079.10212791834</v>
       </c>
       <c r="N16" t="n">
-        <v>993.9571298450333</v>
+        <v>1189.571465151067</v>
       </c>
       <c r="O16" t="n">
         <v>1470.3948901139</v>
@@ -5463,25 +5463,25 @@
         <v>2055.465378692325</v>
       </c>
       <c r="S16" t="n">
-        <v>1900.553221957024</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="T16" t="n">
-        <v>1660.946142649494</v>
+        <v>1815.858299384795</v>
       </c>
       <c r="U16" t="n">
-        <v>1380.809340130222</v>
+        <v>1535.721496865524</v>
       </c>
       <c r="V16" t="n">
-        <v>1099.097872738251</v>
+        <v>1254.010029473553</v>
       </c>
       <c r="W16" t="n">
-        <v>1099.097872738251</v>
+        <v>979.1576256460658</v>
       </c>
       <c r="X16" t="n">
-        <v>856.5339761840561</v>
+        <v>979.1576256460658</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.5345205057728</v>
+        <v>752.8148573358078</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72.44142439975906</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="C17" t="n">
-        <v>72.44142439975906</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="D17" t="n">
-        <v>72.44142439975906</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="E17" t="n">
-        <v>72.44142439975906</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="F17" t="n">
-        <v>72.44142439975906</v>
+        <v>721.5814626898276</v>
       </c>
       <c r="G17" t="n">
-        <v>72.44142439975906</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H17" t="n">
         <v>41.2645564428411</v>
@@ -5533,7 +5533,7 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P17" t="n">
-        <v>1807.677227494528</v>
+        <v>1807.677227494527</v>
       </c>
       <c r="Q17" t="n">
         <v>1978.01981467369</v>
@@ -5542,25 +5542,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S17" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T17" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U17" t="n">
-        <v>2063.227822142055</v>
+        <v>1745.036413853492</v>
       </c>
       <c r="V17" t="n">
-        <v>1705.738407268305</v>
+        <v>1387.546998979741</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.347057568652</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="X17" t="n">
-        <v>897.6270587363988</v>
+        <v>1146.705644500427</v>
       </c>
       <c r="Y17" t="n">
-        <v>492.2897886912891</v>
+        <v>1146.705644500427</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>41.2645564428411</v>
       </c>
       <c r="I18" t="n">
-        <v>60.41309749025406</v>
+        <v>83.27141779353224</v>
       </c>
       <c r="J18" t="n">
-        <v>136.4876372116241</v>
+        <v>451.4484499844934</v>
       </c>
       <c r="K18" t="n">
-        <v>279.2113015876566</v>
+        <v>594.1721143605259</v>
       </c>
       <c r="L18" t="n">
-        <v>527.423697708912</v>
+        <v>793.6091072459662</v>
       </c>
       <c r="M18" t="n">
-        <v>763.3027526489775</v>
+        <v>1029.488162186032</v>
       </c>
       <c r="N18" t="n">
         <v>1273.951638629136</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.1455583489566</v>
+        <v>320.0849920695472</v>
       </c>
       <c r="C19" t="n">
-        <v>536.1729952278725</v>
+        <v>148.1124289484632</v>
       </c>
       <c r="D19" t="n">
-        <v>372.8562223546433</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="E19" t="n">
-        <v>206.6480165074968</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="F19" t="n">
-        <v>206.6480165074968</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G19" t="n">
         <v>41.2645564428411</v>
@@ -5673,25 +5673,25 @@
         <v>41.2645564428411</v>
       </c>
       <c r="J19" t="n">
-        <v>159.284049374258</v>
+        <v>81.3623327260371</v>
       </c>
       <c r="K19" t="n">
-        <v>485.278018711607</v>
+        <v>160.0736929493641</v>
       </c>
       <c r="L19" t="n">
-        <v>967.2500461423929</v>
+        <v>642.04572038015</v>
       </c>
       <c r="M19" t="n">
-        <v>1261.190116915509</v>
+        <v>753.897802156097</v>
       </c>
       <c r="N19" t="n">
-        <v>1371.659454148236</v>
+        <v>1145.330627222932</v>
       </c>
       <c r="O19" t="n">
-        <v>1470.3948901139</v>
+        <v>1621.768387491799</v>
       </c>
       <c r="P19" t="n">
-        <v>1864.538746920123</v>
+        <v>2015.912244298022</v>
       </c>
       <c r="Q19" t="n">
         <v>2063.227822142055</v>
@@ -5700,25 +5700,25 @@
         <v>2055.465378692325</v>
       </c>
       <c r="S19" t="n">
-        <v>1900.553221957024</v>
+        <v>2055.465378692325</v>
       </c>
       <c r="T19" t="n">
-        <v>1900.553221957024</v>
+        <v>1815.858299384795</v>
       </c>
       <c r="U19" t="n">
-        <v>1620.416419437752</v>
+        <v>1535.721496865524</v>
       </c>
       <c r="V19" t="n">
-        <v>1338.704952045781</v>
+        <v>1254.010029473553</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.704952045781</v>
+        <v>979.1576256460658</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.65429537128</v>
+        <v>736.5937290918708</v>
       </c>
       <c r="Y19" t="n">
-        <v>898.3115270610222</v>
+        <v>510.2509607816129</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>891.4579072445408</v>
+        <v>1147.55840254197</v>
       </c>
       <c r="C20" t="n">
-        <v>464.5571772578409</v>
+        <v>1147.55840254197</v>
       </c>
       <c r="D20" t="n">
-        <v>41.2645564428411</v>
+        <v>1147.55840254197</v>
       </c>
       <c r="E20" t="n">
-        <v>41.2645564428411</v>
+        <v>721.5814626898276</v>
       </c>
       <c r="F20" t="n">
-        <v>41.2645564428411</v>
+        <v>721.5814626898276</v>
       </c>
       <c r="G20" t="n">
-        <v>41.2645564428411</v>
+        <v>319.1897401827149</v>
       </c>
       <c r="H20" t="n">
         <v>41.2645564428411</v>
@@ -5752,19 +5752,19 @@
         <v>80.64296560125339</v>
       </c>
       <c r="J20" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414255</v>
       </c>
       <c r="K20" t="n">
-        <v>420.8787884255858</v>
+        <v>420.878788425586</v>
       </c>
       <c r="L20" t="n">
-        <v>684.1393418771322</v>
+        <v>684.1393418771324</v>
       </c>
       <c r="M20" t="n">
-        <v>982.2137160547607</v>
+        <v>982.2137160547609</v>
       </c>
       <c r="N20" t="n">
-        <v>1285.860989095307</v>
+        <v>1285.860989095308</v>
       </c>
       <c r="O20" t="n">
         <v>1570.419518651853</v>
@@ -5779,25 +5779,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S20" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T20" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U20" t="n">
-        <v>2063.227822142055</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V20" t="n">
-        <v>2063.227822142055</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="W20" t="n">
-        <v>1723.026270368324</v>
+        <v>1249.354771491401</v>
       </c>
       <c r="X20" t="n">
-        <v>1311.306271536071</v>
+        <v>1249.354771491401</v>
       </c>
       <c r="Y20" t="n">
-        <v>1311.306271536071</v>
+        <v>1147.55840254197</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>845.2850763691096</v>
+        <v>597.2833876027652</v>
       </c>
       <c r="C21" t="n">
-        <v>727.7791728866143</v>
+        <v>479.7774841202699</v>
       </c>
       <c r="D21" t="n">
-        <v>623.9392144018993</v>
+        <v>375.9375256355549</v>
       </c>
       <c r="E21" t="n">
-        <v>519.2372806748366</v>
+        <v>271.2355919084922</v>
       </c>
       <c r="F21" t="n">
-        <v>425.5914503577408</v>
+        <v>177.5897615913963</v>
       </c>
       <c r="G21" t="n">
-        <v>332.5795972793403</v>
+        <v>84.57790851299586</v>
       </c>
       <c r="H21" t="n">
-        <v>289.2662452091856</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I21" t="n">
-        <v>331.8720921010104</v>
+        <v>60.41309749025406</v>
       </c>
       <c r="J21" t="n">
-        <v>699.4501387508381</v>
+        <v>428.5901296812153</v>
       </c>
       <c r="K21" t="n">
-        <v>842.1738031268706</v>
+        <v>571.3137940572478</v>
       </c>
       <c r="L21" t="n">
-        <v>1041.610796012311</v>
+        <v>770.7507869426881</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.489850952376</v>
+        <v>1006.629841882754</v>
       </c>
       <c r="N21" t="n">
-        <v>1521.953327395481</v>
+        <v>1251.093318325858</v>
       </c>
       <c r="O21" t="n">
-        <v>1741.978931804364</v>
+        <v>1471.118922734742</v>
       </c>
       <c r="P21" t="n">
-        <v>1915.427253877896</v>
+        <v>1644.567244808274</v>
       </c>
       <c r="Q21" t="n">
-        <v>2023.260994401895</v>
+        <v>1752.400985332273</v>
       </c>
       <c r="R21" t="n">
-        <v>2063.227822142055</v>
+        <v>1815.226133375711</v>
       </c>
       <c r="S21" t="n">
-        <v>2001.256757648139</v>
+        <v>1753.255068881794</v>
       </c>
       <c r="T21" t="n">
-        <v>1863.576485493939</v>
+        <v>1615.574796727595</v>
       </c>
       <c r="U21" t="n">
-        <v>1678.876836696734</v>
+        <v>1430.875147930389</v>
       </c>
       <c r="V21" t="n">
-        <v>1473.903697836</v>
+        <v>1225.902009069655</v>
       </c>
       <c r="W21" t="n">
-        <v>1277.382320669217</v>
+        <v>1029.380631902873</v>
       </c>
       <c r="X21" t="n">
-        <v>1113.90497443588</v>
+        <v>865.9032856695355</v>
       </c>
       <c r="Y21" t="n">
-        <v>974.2120857891723</v>
+        <v>726.2103970228279</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.9895144862044</v>
+        <v>607.9842380385485</v>
       </c>
       <c r="C22" t="n">
-        <v>680.9895144862044</v>
+        <v>436.0116749174645</v>
       </c>
       <c r="D22" t="n">
-        <v>618.2177476325435</v>
+        <v>436.0116749174645</v>
       </c>
       <c r="E22" t="n">
-        <v>452.009541785397</v>
+        <v>436.0116749174645</v>
       </c>
       <c r="F22" t="n">
-        <v>280.1477675599574</v>
+        <v>342.6779901901817</v>
       </c>
       <c r="G22" t="n">
-        <v>114.7643074953017</v>
+        <v>177.294530125526</v>
       </c>
       <c r="H22" t="n">
-        <v>114.7643074953017</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I22" t="n">
         <v>41.2645564428411</v>
@@ -5916,16 +5916,16 @@
         <v>160.0736929493641</v>
       </c>
       <c r="L22" t="n">
-        <v>265.656826788985</v>
+        <v>438.935685741474</v>
       </c>
       <c r="M22" t="n">
-        <v>776.3057127691436</v>
+        <v>949.5845717216326</v>
       </c>
       <c r="N22" t="n">
-        <v>1284.807972843751</v>
+        <v>1458.08683179624</v>
       </c>
       <c r="O22" t="n">
-        <v>1761.245733112617</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P22" t="n">
         <v>2015.912244298022</v>
@@ -5937,25 +5937,25 @@
         <v>2063.227822142055</v>
       </c>
       <c r="S22" t="n">
-        <v>1908.315665406753</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="T22" t="n">
-        <v>1668.708586099223</v>
+        <v>1823.620742834525</v>
       </c>
       <c r="U22" t="n">
-        <v>1388.571783579952</v>
+        <v>1823.620742834525</v>
       </c>
       <c r="V22" t="n">
-        <v>1388.571783579952</v>
+        <v>1541.909275442554</v>
       </c>
       <c r="W22" t="n">
-        <v>1113.719379752465</v>
+        <v>1267.056871615067</v>
       </c>
       <c r="X22" t="n">
-        <v>871.15548319827</v>
+        <v>1024.492975060872</v>
       </c>
       <c r="Y22" t="n">
-        <v>871.15548319827</v>
+        <v>798.1502067506142</v>
       </c>
     </row>
     <row r="23">
@@ -5983,58 +5983,58 @@
         <v>360.454296625556</v>
       </c>
       <c r="H23" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I23" t="n">
         <v>121.9075220440945</v>
       </c>
       <c r="J23" t="n">
-        <v>254.7707692842661</v>
+        <v>646.4999879918923</v>
       </c>
       <c r="K23" t="n">
-        <v>462.1433448684267</v>
+        <v>1094.540157577098</v>
       </c>
       <c r="L23" t="n">
-        <v>1483.441116828744</v>
+        <v>1357.800711028644</v>
       </c>
       <c r="M23" t="n">
-        <v>1781.515491006373</v>
+        <v>1655.875085206273</v>
       </c>
       <c r="N23" t="n">
-        <v>2802.81326296669</v>
+        <v>1959.52235824682</v>
       </c>
       <c r="O23" t="n">
-        <v>3087.371792523236</v>
+        <v>2244.080887803365</v>
       </c>
       <c r="P23" t="n">
-        <v>3870.905049636584</v>
+        <v>3226.817483996097</v>
       </c>
       <c r="Q23" t="n">
-        <v>4041.247636815746</v>
+        <v>3889.008978537994</v>
       </c>
       <c r="R23" t="n">
-        <v>4126.455644284111</v>
+        <v>4126.45564428411</v>
       </c>
       <c r="S23" t="n">
         <v>4066.46335820686</v>
       </c>
       <c r="T23" t="n">
-        <v>3854.062267678797</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="U23" t="n">
-        <v>3854.062267678797</v>
+        <v>3808.264235995547</v>
       </c>
       <c r="V23" t="n">
-        <v>3854.062267678797</v>
+        <v>3450.774821121797</v>
       </c>
       <c r="W23" t="n">
-        <v>3457.670917979143</v>
+        <v>3054.383471422144</v>
       </c>
       <c r="X23" t="n">
-        <v>3045.950919146891</v>
+        <v>2883.988855888641</v>
       </c>
       <c r="Y23" t="n">
-        <v>2640.613649101781</v>
+        <v>2883.988855888641</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>125.842464955837</v>
       </c>
       <c r="H24" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I24" t="n">
         <v>101.6776539330952</v>
       </c>
       <c r="J24" t="n">
-        <v>177.7521936544653</v>
+        <v>469.8546861240563</v>
       </c>
       <c r="K24" t="n">
-        <v>635.4366708033672</v>
+        <v>612.5783505000888</v>
       </c>
       <c r="L24" t="n">
-        <v>834.8736636888075</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M24" t="n">
-        <v>1070.752718628873</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N24" t="n">
-        <v>1315.216195071977</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O24" t="n">
-        <v>1535.241799480861</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P24" t="n">
-        <v>1708.690121554393</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q24" t="n">
-        <v>1816.523862078392</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R24" t="n">
         <v>1856.490689818552</v>
@@ -6144,28 +6144,28 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I25" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="J25" t="n">
         <v>200.5486058170991</v>
       </c>
       <c r="K25" t="n">
-        <v>443.7240585190079</v>
+        <v>526.5425751544482</v>
       </c>
       <c r="L25" t="n">
-        <v>925.6960859497938</v>
+        <v>1008.514602585234</v>
       </c>
       <c r="M25" t="n">
-        <v>1451.083648188563</v>
+        <v>1533.902164824003</v>
       </c>
       <c r="N25" t="n">
-        <v>1959.58590826317</v>
+        <v>2042.40442489861</v>
       </c>
       <c r="O25" t="n">
-        <v>2436.023668532036</v>
+        <v>2518.842185167477</v>
       </c>
       <c r="P25" t="n">
-        <v>2830.16752533826</v>
+        <v>2912.9860419737</v>
       </c>
       <c r="Q25" t="n">
         <v>3028.856600560192</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1636.624587279398</v>
+        <v>2422.13401660255</v>
       </c>
       <c r="C26" t="n">
-        <v>1209.723857292698</v>
+        <v>1995.23328661585</v>
       </c>
       <c r="D26" t="n">
-        <v>786.4312364776985</v>
+        <v>1613.947140795411</v>
       </c>
       <c r="E26" t="n">
-        <v>360.454296625556</v>
+        <v>1187.970200943269</v>
       </c>
       <c r="F26" t="n">
-        <v>360.454296625556</v>
+        <v>762.8460191326687</v>
       </c>
       <c r="G26" t="n">
         <v>360.454296625556</v>
       </c>
       <c r="H26" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I26" t="n">
         <v>121.9075220440945</v>
       </c>
       <c r="J26" t="n">
-        <v>254.7707692842661</v>
+        <v>646.4999879918923</v>
       </c>
       <c r="K26" t="n">
-        <v>837.0914913773481</v>
+        <v>1604.787826338413</v>
       </c>
       <c r="L26" t="n">
-        <v>1858.389263337666</v>
+        <v>1868.04837978996</v>
       </c>
       <c r="M26" t="n">
-        <v>2156.463637515294</v>
+        <v>2166.122753967588</v>
       </c>
       <c r="N26" t="n">
-        <v>2460.110910555841</v>
+        <v>2469.770027008135</v>
       </c>
       <c r="O26" t="n">
-        <v>3481.408682516158</v>
+        <v>2754.328556564681</v>
       </c>
       <c r="P26" t="n">
-        <v>3718.666391358833</v>
+        <v>3226.817483996097</v>
       </c>
       <c r="Q26" t="n">
-        <v>3889.008978537995</v>
+        <v>3889.008978537994</v>
       </c>
       <c r="R26" t="n">
-        <v>4126.455644284111</v>
+        <v>4126.45564428411</v>
       </c>
       <c r="S26" t="n">
-        <v>4098.01119776107</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="T26" t="n">
-        <v>3885.610107233006</v>
+        <v>3854.062267678796</v>
       </c>
       <c r="U26" t="n">
-        <v>3627.410985021694</v>
+        <v>3595.863145467483</v>
       </c>
       <c r="V26" t="n">
-        <v>3269.921570147943</v>
+        <v>3238.373730593733</v>
       </c>
       <c r="W26" t="n">
-        <v>2873.53022044829</v>
+        <v>2841.98238089408</v>
       </c>
       <c r="X26" t="n">
-        <v>2461.810221616037</v>
+        <v>2841.98238089408</v>
       </c>
       <c r="Y26" t="n">
-        <v>2056.472951570928</v>
+        <v>2841.98238089408</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2908.512898511166</v>
+        <v>638.5479440456063</v>
       </c>
       <c r="C27" t="n">
-        <v>2791.006995028671</v>
+        <v>521.0420405631111</v>
       </c>
       <c r="D27" t="n">
-        <v>2687.167036543956</v>
+        <v>417.2020820783961</v>
       </c>
       <c r="E27" t="n">
-        <v>2582.465102816893</v>
+        <v>312.5001483513333</v>
       </c>
       <c r="F27" t="n">
-        <v>2488.819272499798</v>
+        <v>218.8543180342375</v>
       </c>
       <c r="G27" t="n">
-        <v>2395.807419421397</v>
+        <v>125.842464955837</v>
       </c>
       <c r="H27" t="n">
-        <v>2352.494067351242</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I27" t="n">
-        <v>2395.099914243067</v>
+        <v>101.6776539330952</v>
       </c>
       <c r="J27" t="n">
-        <v>2471.174453964437</v>
+        <v>469.8546861240563</v>
       </c>
       <c r="K27" t="n">
-        <v>2613.898118340469</v>
+        <v>612.5783505000888</v>
       </c>
       <c r="L27" t="n">
-        <v>2813.33511122591</v>
+        <v>812.0153433855291</v>
       </c>
       <c r="M27" t="n">
-        <v>3049.214166165975</v>
+        <v>1047.894398325595</v>
       </c>
       <c r="N27" t="n">
-        <v>3585.181149537537</v>
+        <v>1292.357874768699</v>
       </c>
       <c r="O27" t="n">
-        <v>3805.206753946421</v>
+        <v>1512.383479177583</v>
       </c>
       <c r="P27" t="n">
-        <v>3978.655076019953</v>
+        <v>1685.831801251115</v>
       </c>
       <c r="Q27" t="n">
-        <v>4086.488816543951</v>
+        <v>1793.665541775114</v>
       </c>
       <c r="R27" t="n">
-        <v>4126.455644284111</v>
+        <v>1856.490689818552</v>
       </c>
       <c r="S27" t="n">
-        <v>4064.484579790195</v>
+        <v>1794.519625324635</v>
       </c>
       <c r="T27" t="n">
-        <v>3926.804307635995</v>
+        <v>1656.839353170436</v>
       </c>
       <c r="U27" t="n">
-        <v>3742.10465883879</v>
+        <v>1472.13970437323</v>
       </c>
       <c r="V27" t="n">
-        <v>3537.131519978056</v>
+        <v>1267.166565512496</v>
       </c>
       <c r="W27" t="n">
-        <v>3340.610142811273</v>
+        <v>1070.645188345714</v>
       </c>
       <c r="X27" t="n">
-        <v>3177.132796577936</v>
+        <v>907.1678421123767</v>
       </c>
       <c r="Y27" t="n">
-        <v>3037.439907931229</v>
+        <v>767.474953465669</v>
       </c>
     </row>
     <row r="28">
@@ -6381,7 +6381,7 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I28" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="J28" t="n">
         <v>200.5486058170991</v>
@@ -6399,10 +6399,10 @@
         <v>2042.40442489861</v>
       </c>
       <c r="O28" t="n">
-        <v>2436.023668532036</v>
+        <v>2518.842185167477</v>
       </c>
       <c r="P28" t="n">
-        <v>2830.16752533826</v>
+        <v>2912.9860419737</v>
       </c>
       <c r="Q28" t="n">
         <v>3028.856600560192</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2037.239761610411</v>
+        <v>2464.140491597111</v>
       </c>
       <c r="C29" t="n">
         <v>2037.239761610411</v>
@@ -6457,58 +6457,58 @@
         <v>360.454296625556</v>
       </c>
       <c r="H29" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I29" t="n">
         <v>121.9075220440945</v>
       </c>
       <c r="J29" t="n">
-        <v>254.7707692842661</v>
+        <v>646.4999879918923</v>
       </c>
       <c r="K29" t="n">
-        <v>850.6073359984302</v>
+        <v>853.8725635760528</v>
       </c>
       <c r="L29" t="n">
-        <v>1871.905107958748</v>
+        <v>1117.133117027599</v>
       </c>
       <c r="M29" t="n">
-        <v>2893.202879919065</v>
+        <v>1415.207491205228</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.850152959612</v>
+        <v>1959.52235824682</v>
       </c>
       <c r="O29" t="n">
-        <v>3481.408682516158</v>
+        <v>2244.080887803365</v>
       </c>
       <c r="P29" t="n">
-        <v>3718.666391358833</v>
+        <v>3226.817483996097</v>
       </c>
       <c r="Q29" t="n">
-        <v>3889.008978537995</v>
+        <v>3889.008978537994</v>
       </c>
       <c r="R29" t="n">
-        <v>4126.455644284111</v>
+        <v>4126.45564428411</v>
       </c>
       <c r="S29" t="n">
-        <v>4126.455644284111</v>
+        <v>4066.46335820686</v>
       </c>
       <c r="T29" t="n">
-        <v>3914.054553756047</v>
+        <v>3854.062267678796</v>
       </c>
       <c r="U29" t="n">
-        <v>3655.855431544735</v>
+        <v>3595.863145467483</v>
       </c>
       <c r="V29" t="n">
-        <v>3655.855431544735</v>
+        <v>3595.863145467483</v>
       </c>
       <c r="W29" t="n">
-        <v>3274.145394779303</v>
+        <v>3595.863145467483</v>
       </c>
       <c r="X29" t="n">
-        <v>2862.42539594705</v>
+        <v>3184.143146635231</v>
       </c>
       <c r="Y29" t="n">
-        <v>2457.088125901941</v>
+        <v>2883.988855888641</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2908.512898511166</v>
+        <v>638.5479440456063</v>
       </c>
       <c r="C30" t="n">
-        <v>2791.006995028671</v>
+        <v>521.0420405631111</v>
       </c>
       <c r="D30" t="n">
-        <v>2687.167036543956</v>
+        <v>417.2020820783961</v>
       </c>
       <c r="E30" t="n">
-        <v>2582.465102816893</v>
+        <v>312.5001483513333</v>
       </c>
       <c r="F30" t="n">
-        <v>2488.819272499798</v>
+        <v>218.8543180342375</v>
       </c>
       <c r="G30" t="n">
-        <v>2395.807419421397</v>
+        <v>125.842464955837</v>
       </c>
       <c r="H30" t="n">
-        <v>2352.494067351242</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I30" t="n">
-        <v>2371.642608398655</v>
+        <v>125.134959777507</v>
       </c>
       <c r="J30" t="n">
-        <v>2447.717148120025</v>
+        <v>201.2094994988771</v>
       </c>
       <c r="K30" t="n">
-        <v>2590.440812496057</v>
+        <v>343.9331638749096</v>
       </c>
       <c r="L30" t="n">
-        <v>2789.877805381498</v>
+        <v>543.3701567603498</v>
       </c>
       <c r="M30" t="n">
-        <v>3025.756860321563</v>
+        <v>779.2492117004153</v>
       </c>
       <c r="N30" t="n">
-        <v>3270.220336764668</v>
+        <v>1023.71268814352</v>
       </c>
       <c r="O30" t="n">
-        <v>3490.245941173551</v>
+        <v>1243.738292552403</v>
       </c>
       <c r="P30" t="n">
-        <v>3978.655076019953</v>
+        <v>1417.186614625935</v>
       </c>
       <c r="Q30" t="n">
-        <v>4086.488816543951</v>
+        <v>1711.068361793486</v>
       </c>
       <c r="R30" t="n">
-        <v>4126.455644284111</v>
+        <v>1856.490689818552</v>
       </c>
       <c r="S30" t="n">
-        <v>4064.484579790195</v>
+        <v>1794.519625324635</v>
       </c>
       <c r="T30" t="n">
-        <v>3926.804307635995</v>
+        <v>1656.839353170436</v>
       </c>
       <c r="U30" t="n">
-        <v>3742.10465883879</v>
+        <v>1472.13970437323</v>
       </c>
       <c r="V30" t="n">
-        <v>3537.131519978056</v>
+        <v>1267.166565512496</v>
       </c>
       <c r="W30" t="n">
-        <v>3340.610142811273</v>
+        <v>1070.645188345714</v>
       </c>
       <c r="X30" t="n">
-        <v>3177.132796577936</v>
+        <v>907.1678421123767</v>
       </c>
       <c r="Y30" t="n">
-        <v>3037.439907931229</v>
+        <v>767.474953465669</v>
       </c>
     </row>
     <row r="31">
@@ -6618,7 +6618,7 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I31" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="J31" t="n">
         <v>200.5486058170991</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2001.468097424842</v>
+        <v>2220.76528481025</v>
       </c>
       <c r="C32" t="n">
-        <v>1574.567367438142</v>
+        <v>1793.86455482355</v>
       </c>
       <c r="D32" t="n">
-        <v>1151.274746623142</v>
+        <v>1370.57193400855</v>
       </c>
       <c r="E32" t="n">
-        <v>785.5784784361558</v>
+        <v>944.5949941564078</v>
       </c>
       <c r="F32" t="n">
-        <v>360.454296625556</v>
+        <v>519.470812345808</v>
       </c>
       <c r="G32" t="n">
-        <v>360.454296625556</v>
+        <v>117.0790898386953</v>
       </c>
       <c r="H32" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I32" t="n">
         <v>121.9075220440945</v>
       </c>
       <c r="J32" t="n">
-        <v>254.7707692842661</v>
+        <v>646.4999879918923</v>
       </c>
       <c r="K32" t="n">
-        <v>462.1433448684267</v>
+        <v>1094.540157577098</v>
       </c>
       <c r="L32" t="n">
-        <v>1306.493267316728</v>
+        <v>1357.800711028644</v>
       </c>
       <c r="M32" t="n">
-        <v>2327.791039277045</v>
+        <v>1655.875085206273</v>
       </c>
       <c r="N32" t="n">
-        <v>3349.088811237363</v>
+        <v>1959.52235824682</v>
       </c>
       <c r="O32" t="n">
-        <v>3633.647340793909</v>
+        <v>2244.080887803365</v>
       </c>
       <c r="P32" t="n">
-        <v>3870.905049636584</v>
+        <v>3226.817483996097</v>
       </c>
       <c r="Q32" t="n">
-        <v>4041.247636815746</v>
+        <v>3889.008978537994</v>
       </c>
       <c r="R32" t="n">
-        <v>4126.455644284111</v>
+        <v>4126.45564428411</v>
       </c>
       <c r="S32" t="n">
         <v>4066.46335820686</v>
       </c>
       <c r="T32" t="n">
-        <v>3854.062267678797</v>
+        <v>3854.062267678796</v>
       </c>
       <c r="U32" t="n">
-        <v>3595.863145467484</v>
+        <v>3854.062267678796</v>
       </c>
       <c r="V32" t="n">
-        <v>3238.373730593734</v>
+        <v>3854.062267678796</v>
       </c>
       <c r="W32" t="n">
-        <v>3238.373730593734</v>
+        <v>3457.670917979142</v>
       </c>
       <c r="X32" t="n">
-        <v>2826.653731761481</v>
+        <v>3045.95091914689</v>
       </c>
       <c r="Y32" t="n">
-        <v>2421.316461716372</v>
+        <v>2640.61364910178</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>125.842464955837</v>
       </c>
       <c r="H33" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="I33" t="n">
         <v>125.134959777507</v>
@@ -6794,13 +6794,13 @@
         <v>1023.71268814352</v>
       </c>
       <c r="O33" t="n">
-        <v>1535.241799480861</v>
+        <v>1243.738292552403</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.690121554393</v>
+        <v>1417.186614625935</v>
       </c>
       <c r="Q33" t="n">
-        <v>1816.523862078392</v>
+        <v>1711.068361793486</v>
       </c>
       <c r="R33" t="n">
         <v>1856.490689818552</v>
@@ -6855,7 +6855,7 @@
         <v>156.0288639381428</v>
       </c>
       <c r="I34" t="n">
-        <v>82.52911288568222</v>
+        <v>82.52911288568221</v>
       </c>
       <c r="J34" t="n">
         <v>200.5486058170991</v>
@@ -6867,16 +6867,16 @@
         <v>1008.514602585234</v>
       </c>
       <c r="M34" t="n">
-        <v>1533.902164824003</v>
+        <v>1451.083648188563</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.40442489861</v>
+        <v>1959.58590826317</v>
       </c>
       <c r="O34" t="n">
-        <v>2518.842185167477</v>
+        <v>2436.023668532036</v>
       </c>
       <c r="P34" t="n">
-        <v>2912.9860419737</v>
+        <v>2830.16752533826</v>
       </c>
       <c r="Q34" t="n">
         <v>3028.856600560192</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1705.738407268305</v>
+        <v>894.1422262816834</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.837677281605</v>
+        <v>467.2414962949836</v>
       </c>
       <c r="D35" t="n">
-        <v>855.5450564666055</v>
+        <v>467.2414962949836</v>
       </c>
       <c r="E35" t="n">
-        <v>855.5450564666055</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="F35" t="n">
-        <v>430.4208746560057</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="G35" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H35" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I35" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J35" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414247</v>
       </c>
       <c r="K35" t="n">
-        <v>420.8787884255855</v>
+        <v>420.8787884255854</v>
       </c>
       <c r="L35" t="n">
-        <v>684.139341877132</v>
+        <v>684.1393418771318</v>
       </c>
       <c r="M35" t="n">
         <v>982.2137160547604</v>
@@ -6955,34 +6955,34 @@
         <v>1570.419518651853</v>
       </c>
       <c r="P35" t="n">
-        <v>1807.677227494527</v>
+        <v>1807.677227494528</v>
       </c>
       <c r="Q35" t="n">
         <v>1978.01981467369</v>
       </c>
       <c r="R35" t="n">
-        <v>2063.227822142056</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S35" t="n">
-        <v>2063.227822142056</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T35" t="n">
-        <v>2063.227822142056</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U35" t="n">
-        <v>2063.227822142056</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V35" t="n">
-        <v>1705.738407268305</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="W35" t="n">
-        <v>1705.738407268305</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="X35" t="n">
-        <v>1705.738407268305</v>
+        <v>1299.479496326793</v>
       </c>
       <c r="Y35" t="n">
-        <v>1705.738407268305</v>
+        <v>894.1422262816834</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>845.28507636911</v>
+        <v>597.2833876027652</v>
       </c>
       <c r="C36" t="n">
-        <v>727.7791728866148</v>
+        <v>479.7774841202699</v>
       </c>
       <c r="D36" t="n">
-        <v>623.9392144018998</v>
+        <v>375.9375256355549</v>
       </c>
       <c r="E36" t="n">
-        <v>519.2372806748371</v>
+        <v>271.2355919084922</v>
       </c>
       <c r="F36" t="n">
-        <v>425.5914503577412</v>
+        <v>177.5897615913963</v>
       </c>
       <c r="G36" t="n">
-        <v>332.5795972793408</v>
+        <v>84.57790851299586</v>
       </c>
       <c r="H36" t="n">
-        <v>289.266245209186</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I36" t="n">
-        <v>308.414786256599</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J36" t="n">
-        <v>384.489325977969</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K36" t="n">
-        <v>527.2129903540016</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L36" t="n">
-        <v>726.6499832394418</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M36" t="n">
-        <v>962.5290381795073</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N36" t="n">
-        <v>1206.992514622612</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O36" t="n">
-        <v>1427.018119031496</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P36" t="n">
-        <v>1600.466441105028</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q36" t="n">
-        <v>2023.260994401895</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R36" t="n">
-        <v>2063.227822142056</v>
+        <v>1815.226133375711</v>
       </c>
       <c r="S36" t="n">
-        <v>2001.256757648139</v>
+        <v>1753.255068881794</v>
       </c>
       <c r="T36" t="n">
-        <v>1863.57648549394</v>
+        <v>1615.574796727595</v>
       </c>
       <c r="U36" t="n">
-        <v>1678.876836696734</v>
+        <v>1430.875147930389</v>
       </c>
       <c r="V36" t="n">
-        <v>1473.903697836</v>
+        <v>1225.902009069655</v>
       </c>
       <c r="W36" t="n">
-        <v>1277.382320669218</v>
+        <v>1029.380631902873</v>
       </c>
       <c r="X36" t="n">
-        <v>1113.90497443588</v>
+        <v>865.9032856695355</v>
       </c>
       <c r="Y36" t="n">
-        <v>974.2120857891728</v>
+        <v>726.2103970228279</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>379.4453254110715</v>
+        <v>454.6467461759464</v>
       </c>
       <c r="C37" t="n">
-        <v>207.4727622899875</v>
+        <v>282.6741830548624</v>
       </c>
       <c r="D37" t="n">
-        <v>207.4727622899875</v>
+        <v>282.6741830548624</v>
       </c>
       <c r="E37" t="n">
-        <v>41.26455644284111</v>
+        <v>282.6741830548624</v>
       </c>
       <c r="F37" t="n">
-        <v>41.26455644284111</v>
+        <v>110.8124088294228</v>
       </c>
       <c r="G37" t="n">
-        <v>41.26455644284111</v>
+        <v>110.8124088294228</v>
       </c>
       <c r="H37" t="n">
-        <v>41.26455644284111</v>
+        <v>110.8124088294228</v>
       </c>
       <c r="I37" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="J37" t="n">
-        <v>159.284049374258</v>
+        <v>81.3623327260371</v>
       </c>
       <c r="K37" t="n">
-        <v>237.995409597585</v>
+        <v>355.7604625148998</v>
       </c>
       <c r="L37" t="n">
-        <v>343.5785434372059</v>
+        <v>837.7324899456856</v>
       </c>
       <c r="M37" t="n">
-        <v>854.2274294173646</v>
+        <v>949.5845717216326</v>
       </c>
       <c r="N37" t="n">
-        <v>1362.729689491972</v>
+        <v>1458.08683179624</v>
       </c>
       <c r="O37" t="n">
-        <v>1621.7683874918</v>
+        <v>1934.524592065107</v>
       </c>
       <c r="P37" t="n">
         <v>2015.912244298022</v>
       </c>
       <c r="Q37" t="n">
-        <v>2063.227822142056</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="R37" t="n">
-        <v>2055.465378692326</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S37" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="T37" t="n">
-        <v>1660.946142649494</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="U37" t="n">
-        <v>1380.809340130223</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="V37" t="n">
-        <v>1099.097872738251</v>
+        <v>1388.571783579952</v>
       </c>
       <c r="W37" t="n">
-        <v>1038.51795898759</v>
+        <v>1113.719379752465</v>
       </c>
       <c r="X37" t="n">
-        <v>795.9540624333952</v>
+        <v>871.15548319827</v>
       </c>
       <c r="Y37" t="n">
-        <v>569.6112941231372</v>
+        <v>644.812714888012</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>746.0904701694149</v>
+        <v>1597.191591832157</v>
       </c>
       <c r="C38" t="n">
-        <v>319.1897401827149</v>
+        <v>1170.290861845457</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1897401827149</v>
+        <v>1170.290861845457</v>
       </c>
       <c r="E38" t="n">
-        <v>319.1897401827149</v>
+        <v>744.3139219933147</v>
       </c>
       <c r="F38" t="n">
         <v>319.1897401827149</v>
@@ -7168,13 +7168,13 @@
         <v>319.1897401827149</v>
       </c>
       <c r="H38" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I38" t="n">
-        <v>80.64296560125339</v>
+        <v>80.64296560125331</v>
       </c>
       <c r="J38" t="n">
-        <v>213.506212841425</v>
+        <v>213.5062128414249</v>
       </c>
       <c r="K38" t="n">
         <v>420.8787884255855</v>
@@ -7189,37 +7189,37 @@
         <v>1285.860989095307</v>
       </c>
       <c r="O38" t="n">
-        <v>1570.419518651854</v>
+        <v>1570.419518651853</v>
       </c>
       <c r="P38" t="n">
         <v>1807.677227494528</v>
       </c>
       <c r="Q38" t="n">
-        <v>1978.019814673691</v>
+        <v>1978.01981467369</v>
       </c>
       <c r="R38" t="n">
-        <v>2063.227822142056</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S38" t="n">
-        <v>2063.227822142056</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="T38" t="n">
-        <v>2063.227822142056</v>
+        <v>1790.834445536741</v>
       </c>
       <c r="U38" t="n">
-        <v>1928.765519379805</v>
+        <v>1597.191591832157</v>
       </c>
       <c r="V38" t="n">
-        <v>1571.276104506055</v>
+        <v>1597.191591832157</v>
       </c>
       <c r="W38" t="n">
-        <v>1571.276104506055</v>
+        <v>1597.191591832157</v>
       </c>
       <c r="X38" t="n">
-        <v>1571.276104506055</v>
+        <v>1597.191591832157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1165.938834460945</v>
+        <v>1597.191591832157</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H39" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I39" t="n">
-        <v>60.41309749025407</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J39" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K39" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L39" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M39" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N39" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O39" t="n">
-        <v>1179.016430265151</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P39" t="n">
-        <v>1667.425565111552</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R39" t="n">
         <v>1815.226133375711</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>959.7691209885345</v>
+        <v>1009.635952522705</v>
       </c>
       <c r="C40" t="n">
-        <v>787.7965578674505</v>
+        <v>837.6633894016209</v>
       </c>
       <c r="D40" t="n">
-        <v>624.4797849942212</v>
+        <v>674.3466165283916</v>
       </c>
       <c r="E40" t="n">
-        <v>458.2715791470747</v>
+        <v>508.1384106812451</v>
       </c>
       <c r="F40" t="n">
-        <v>416.1777412426422</v>
+        <v>336.2766364558055</v>
       </c>
       <c r="G40" t="n">
-        <v>250.7942811779865</v>
+        <v>170.8931763911498</v>
       </c>
       <c r="H40" t="n">
-        <v>114.7643074953017</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I40" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="J40" t="n">
-        <v>81.36233272603711</v>
+        <v>159.284049374258</v>
       </c>
       <c r="K40" t="n">
-        <v>407.3563020633862</v>
+        <v>237.995409597585</v>
       </c>
       <c r="L40" t="n">
-        <v>512.9394359030071</v>
+        <v>343.5785434372059</v>
       </c>
       <c r="M40" t="n">
-        <v>1023.588321883166</v>
+        <v>854.2274294173645</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.090581957773</v>
+        <v>1362.729689491972</v>
       </c>
       <c r="O40" t="n">
-        <v>1934.524592065107</v>
+        <v>1839.167449760839</v>
       </c>
       <c r="P40" t="n">
-        <v>2015.912244298022</v>
+        <v>1920.555101993754</v>
       </c>
       <c r="Q40" t="n">
-        <v>2063.227822142056</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="R40" t="n">
-        <v>2055.465378692326</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S40" t="n">
-        <v>1900.553221957024</v>
+        <v>1908.315665406753</v>
       </c>
       <c r="T40" t="n">
-        <v>1900.553221957024</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="U40" t="n">
-        <v>1900.553221957024</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="V40" t="n">
-        <v>1618.841754565053</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.841754565053</v>
+        <v>1668.708586099223</v>
       </c>
       <c r="X40" t="n">
-        <v>1376.277858010858</v>
+        <v>1426.144689545029</v>
       </c>
       <c r="Y40" t="n">
-        <v>1149.9350897006</v>
+        <v>1199.801921234771</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>707.4496889887885</v>
+        <v>1234.026122358801</v>
       </c>
       <c r="C41" t="n">
-        <v>280.5489590020886</v>
+        <v>1234.026122358801</v>
       </c>
       <c r="D41" t="n">
-        <v>41.26455644284111</v>
+        <v>810.7335015438016</v>
       </c>
       <c r="E41" t="n">
-        <v>41.26455644284111</v>
+        <v>810.7335015438016</v>
       </c>
       <c r="F41" t="n">
-        <v>41.26455644284111</v>
+        <v>385.6093197332018</v>
       </c>
       <c r="G41" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="H41" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I41" t="n">
         <v>80.64296560125339</v>
@@ -7417,46 +7417,46 @@
         <v>420.8787884255855</v>
       </c>
       <c r="L41" t="n">
-        <v>684.1393418771329</v>
+        <v>684.1393418771324</v>
       </c>
       <c r="M41" t="n">
-        <v>982.2137160547613</v>
+        <v>982.2137160547609</v>
       </c>
       <c r="N41" t="n">
         <v>1285.860989095308</v>
       </c>
       <c r="O41" t="n">
-        <v>1570.419518651854</v>
+        <v>1570.419518651853</v>
       </c>
       <c r="P41" t="n">
         <v>1807.677227494528</v>
       </c>
       <c r="Q41" t="n">
-        <v>1978.019814673691</v>
+        <v>1978.01981467369</v>
       </c>
       <c r="R41" t="n">
-        <v>2063.227822142056</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S41" t="n">
         <v>2003.235536064805</v>
       </c>
       <c r="T41" t="n">
-        <v>1790.834445536741</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="U41" t="n">
-        <v>1532.635323325428</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V41" t="n">
-        <v>1532.635323325428</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="W41" t="n">
-        <v>1532.635323325428</v>
+        <v>1645.746121191054</v>
       </c>
       <c r="X41" t="n">
-        <v>1532.635323325428</v>
+        <v>1234.026122358801</v>
       </c>
       <c r="Y41" t="n">
-        <v>1127.298053280319</v>
+        <v>1234.026122358801</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>84.57790851299586</v>
       </c>
       <c r="H42" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="I42" t="n">
-        <v>60.41309749025407</v>
+        <v>83.87040333466589</v>
       </c>
       <c r="J42" t="n">
-        <v>136.4876372116241</v>
+        <v>345.9929496995878</v>
       </c>
       <c r="K42" t="n">
-        <v>279.2113015876566</v>
+        <v>488.7166140756204</v>
       </c>
       <c r="L42" t="n">
-        <v>478.6482944730969</v>
+        <v>688.1536069610606</v>
       </c>
       <c r="M42" t="n">
-        <v>714.5273494131625</v>
+        <v>924.0326619011262</v>
       </c>
       <c r="N42" t="n">
-        <v>958.9908258562668</v>
+        <v>1168.496138344231</v>
       </c>
       <c r="O42" t="n">
-        <v>1469.639711836426</v>
+        <v>1388.521742753114</v>
       </c>
       <c r="P42" t="n">
-        <v>1643.088033909958</v>
+        <v>1561.970064826646</v>
       </c>
       <c r="Q42" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R42" t="n">
         <v>1815.226133375711</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.037306257081</v>
+        <v>745.702719963018</v>
       </c>
       <c r="C43" t="n">
-        <v>844.0647431359971</v>
+        <v>745.702719963018</v>
       </c>
       <c r="D43" t="n">
-        <v>680.7479702627678</v>
+        <v>582.3859470897887</v>
       </c>
       <c r="E43" t="n">
-        <v>514.5397644156213</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6779901901817</v>
+        <v>416.1777412426422</v>
       </c>
       <c r="G43" t="n">
-        <v>177.294530125526</v>
+        <v>250.7942811779865</v>
       </c>
       <c r="H43" t="n">
-        <v>41.26455644284111</v>
+        <v>114.7643074953017</v>
       </c>
       <c r="I43" t="n">
-        <v>41.26455644284111</v>
+        <v>41.2645564428411</v>
       </c>
       <c r="J43" t="n">
         <v>159.284049374258</v>
       </c>
       <c r="K43" t="n">
-        <v>237.995409597585</v>
+        <v>485.278018711607</v>
       </c>
       <c r="L43" t="n">
-        <v>343.5785434372059</v>
+        <v>750.5412309353508</v>
       </c>
       <c r="M43" t="n">
-        <v>854.2274294173646</v>
+        <v>1261.190116915509</v>
       </c>
       <c r="N43" t="n">
-        <v>1362.729689491972</v>
+        <v>1371.659454148236</v>
       </c>
       <c r="O43" t="n">
-        <v>1839.167449760839</v>
+        <v>1470.3948901139</v>
       </c>
       <c r="P43" t="n">
-        <v>2015.912244298022</v>
+        <v>1864.538746920123</v>
       </c>
       <c r="Q43" t="n">
-        <v>2063.227822142056</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="R43" t="n">
-        <v>2055.465378692326</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="S43" t="n">
-        <v>1900.553221957024</v>
+        <v>2063.227822142055</v>
       </c>
       <c r="T43" t="n">
-        <v>1900.553221957024</v>
+        <v>2051.3100585662</v>
       </c>
       <c r="U43" t="n">
-        <v>1900.553221957024</v>
+        <v>1771.173256046929</v>
       </c>
       <c r="V43" t="n">
-        <v>1707.398447106892</v>
+        <v>1489.461788654958</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.546043279405</v>
+        <v>1214.609384827471</v>
       </c>
       <c r="X43" t="n">
-        <v>1432.546043279405</v>
+        <v>972.045488273276</v>
       </c>
       <c r="Y43" t="n">
-        <v>1206.203274969147</v>
+        <v>745.702719963018</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>742.4823609977146</v>
+        <v>890.5341171099833</v>
       </c>
       <c r="C44" t="n">
-        <v>742.4823609977146</v>
+        <v>890.5341171099833</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1897401827149</v>
+        <v>467.2414962949836</v>
       </c>
       <c r="E44" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="F44" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="G44" t="n">
-        <v>319.1897401827149</v>
+        <v>41.26455644284111</v>
       </c>
       <c r="H44" t="n">
         <v>41.26455644284111</v>
@@ -7681,19 +7681,19 @@
         <v>2003.235536064805</v>
       </c>
       <c r="U44" t="n">
-        <v>1745.036413853492</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.036413853492</v>
+        <v>2003.235536064805</v>
       </c>
       <c r="W44" t="n">
-        <v>1348.645064153839</v>
+        <v>1722.102480233766</v>
       </c>
       <c r="X44" t="n">
-        <v>936.9250653215865</v>
+        <v>1310.382481401513</v>
       </c>
       <c r="Y44" t="n">
-        <v>936.9250653215865</v>
+        <v>1310.382481401513</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>41.26455644284111</v>
       </c>
       <c r="I45" t="n">
-        <v>60.41309749025407</v>
+        <v>83.87040333466591</v>
       </c>
       <c r="J45" t="n">
-        <v>136.4876372116241</v>
+        <v>159.944943056036</v>
       </c>
       <c r="K45" t="n">
-        <v>279.2113015876566</v>
+        <v>302.6686074320685</v>
       </c>
       <c r="L45" t="n">
-        <v>478.6482944730969</v>
+        <v>502.1056003175087</v>
       </c>
       <c r="M45" t="n">
-        <v>714.5273494131625</v>
+        <v>737.9846552575743</v>
       </c>
       <c r="N45" t="n">
-        <v>958.9908258562668</v>
+        <v>982.4481317006787</v>
       </c>
       <c r="O45" t="n">
-        <v>1179.016430265151</v>
+        <v>1202.473736109563</v>
       </c>
       <c r="P45" t="n">
-        <v>1667.425565111552</v>
+        <v>1375.922058183095</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.259305635551</v>
+        <v>1669.803805350645</v>
       </c>
       <c r="R45" t="n">
         <v>1815.226133375711</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>880.0073325743962</v>
+        <v>554.1902038295354</v>
       </c>
       <c r="C46" t="n">
-        <v>708.0347694533122</v>
+        <v>382.2176407084514</v>
       </c>
       <c r="D46" t="n">
-        <v>544.7179965800829</v>
+        <v>343.5027359726724</v>
       </c>
       <c r="E46" t="n">
-        <v>378.5097907329364</v>
+        <v>177.294530125526</v>
       </c>
       <c r="F46" t="n">
-        <v>206.6480165074968</v>
+        <v>177.294530125526</v>
       </c>
       <c r="G46" t="n">
-        <v>41.26455644284111</v>
+        <v>177.294530125526</v>
       </c>
       <c r="H46" t="n">
         <v>41.26455644284111</v>
@@ -7809,16 +7809,16 @@
         <v>81.36233272603711</v>
       </c>
       <c r="K46" t="n">
-        <v>407.3563020633862</v>
+        <v>160.0736929493641</v>
       </c>
       <c r="L46" t="n">
-        <v>816.6380100446773</v>
+        <v>438.9356857414743</v>
       </c>
       <c r="M46" t="n">
-        <v>1327.286896024836</v>
+        <v>949.5845717216331</v>
       </c>
       <c r="N46" t="n">
-        <v>1835.789156099443</v>
+        <v>1458.08683179624</v>
       </c>
       <c r="O46" t="n">
         <v>1934.524592065107</v>
@@ -7830,28 +7830,28 @@
         <v>2063.227822142056</v>
       </c>
       <c r="R46" t="n">
-        <v>2055.465378692326</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="S46" t="n">
-        <v>1900.553221957024</v>
+        <v>2063.227822142056</v>
       </c>
       <c r="T46" t="n">
-        <v>1660.946142649494</v>
+        <v>1823.620742834526</v>
       </c>
       <c r="U46" t="n">
-        <v>1660.946142649494</v>
+        <v>1543.483940315254</v>
       </c>
       <c r="V46" t="n">
-        <v>1379.234675257523</v>
+        <v>1261.772472923283</v>
       </c>
       <c r="W46" t="n">
-        <v>1312.737197840657</v>
+        <v>986.920069095796</v>
       </c>
       <c r="X46" t="n">
-        <v>1070.173301286462</v>
+        <v>744.356172541601</v>
       </c>
       <c r="Y46" t="n">
-        <v>1070.173301286462</v>
+        <v>744.356172541601</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>24.58336485009542</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>293.5588702740149</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>161.9224869031957</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>402.825054751729</v>
+        <v>402.8250547517289</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>345.4712805739892</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>211.62152776562</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9087,19 +9087,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>30.32751975482145</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>183.9272616133026</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.08921242755371</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>49.26808407658089</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>268.8741510475295</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>183.9272616133025</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>283.8015028627357</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>294.4479867964218</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.08921242755371</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>175.0291504570596</v>
       </c>
       <c r="M22" t="n">
-        <v>402.8250547517289</v>
+        <v>402.825054751729</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9576,7 +9576,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>175.0291504570598</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>243.0985797990355</v>
       </c>
       <c r="L23" t="n">
-        <v>765.6941601098698</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>724.8994938583544</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>551.7934831016901</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>318.1422351241105</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>23.08921242755348</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>166.1253459379615</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>69.24745529541322</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>378.7355015241631</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>765.6941601098699</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>744.1810529331026</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>237.6072915037788</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>294.4479867964213</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.08921242755348</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>297.8624319876395</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>69.24745529541322</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>392.3878698282864</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>765.6941601098699</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>730.5286846289789</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>243.0985797990356</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.1422351241106</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>243.0985797990355</v>
       </c>
       <c r="L32" t="n">
-        <v>586.9589585825807</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>730.5286846289789</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>724.8994938583543</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>294.4479867964218</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>334.0575392195774</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.24745529541322</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>318.1422351241102</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>197.6634036015512</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>402.825054751729</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>161.922486903196</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.1422351241106</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>402.825054751729</v>
+        <v>402.8250547517289</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>306.7662365067379</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>96.32034576188701</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>187.9272794379312</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>293.5588702740151</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>24.58336485009517</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>161.2930084688109</v>
       </c>
       <c r="M43" t="n">
         <v>402.825054751729</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>96.32034576188725</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.1422351241106</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>187.9272794379307</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,10 +11457,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>306.7662365067376</v>
+        <v>175.02915045706</v>
       </c>
       <c r="M46" t="n">
         <v>402.8250547517291</v>
@@ -11469,7 +11469,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>377.1399702509307</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>290.6890577067826</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3678052820416</v>
       </c>
       <c r="H11" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>163.7296254640092</v>
       </c>
       <c r="H13" t="n">
-        <v>41.79813191145506</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.3630351679486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>122.5486874040405</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>321.9749328795958</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>89.1256429884441</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.71988411991151</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8298795056549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>244.2808326251262</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.2770796227834</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>153.9944952681356</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>55.90421136393107</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H19" t="n">
         <v>134.669673945858</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T19" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>28.22810748089699</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>275.145931902475</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.2770796227834</v>
@@ -24028,16 +24028,16 @@
         <v>255.6171309891995</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>55.6278999466623</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>300.505492084722</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>99.53955595937271</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>77.74280860317528</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>7.684819015232499</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3354344940787</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>240.9414547189911</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6171309891995</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>238.9121294657619</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>41.5864102446148</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.23236115866768</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>14.53449980487886</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>104.1311495055344</v>
       </c>
     </row>
     <row r="30">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>59.67786494850475</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3678052820416</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>240.9414547189921</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>13.10305025100865</v>
+        <v>398.3678052820416</v>
       </c>
       <c r="H35" t="n">
         <v>275.145931902475</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.2770796227834</v>
@@ -25219,10 +25219,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>64.79884022831197</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,10 +25320,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.7296254640092</v>
@@ -25332,7 +25332,7 @@
         <v>134.669673945858</v>
       </c>
       <c r="I37" t="n">
-        <v>72.76475354193595</v>
+        <v>3.912379679220038</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>212.1297651760572</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3678052820416</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.3923632164781</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2770796227834</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>122.4994512545716</v>
+        <v>63.91070582166176</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>128.4702569577971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.337340197032461</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.76475354193595</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.2110085144546</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3354344940787</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>182.1681360731947</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3678052820416</v>
+        <v>57.46648962458454</v>
       </c>
       <c r="H41" t="n">
         <v>275.145931902475</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.2770796227834</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.76475354193595</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T43" t="n">
-        <v>237.2110085144546</v>
+        <v>225.4124225743585</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>87.67112561642043</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.1516033679816</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25882,7 +25882,7 @@
         <v>398.3678052820416</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>275.145931902475</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>210.2770796227834</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6171309891995</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>114.105710929928</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.3558494560758</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7296254640092</v>
       </c>
       <c r="H46" t="n">
-        <v>134.669673945858</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>72.76475354193595</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.684819015232499</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.3630351679486</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3354344940787</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2713771465145</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295864.2859436134</v>
+        <v>295864.2859436135</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528680.4583851402</v>
+        <v>528680.4583851401</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528680.4583851401</v>
+        <v>528680.4583851399</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528680.4583851402</v>
+        <v>528680.4583851401</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528680.4583851402</v>
+        <v>528680.4583851401</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>295864.2859436134</v>
+        <v>295864.2859436135</v>
       </c>
     </row>
     <row r="14">
@@ -26316,34 +26316,34 @@
         <v>530725.4205566851</v>
       </c>
       <c r="C2" t="n">
-        <v>530725.4205566851</v>
+        <v>530725.4205566852</v>
       </c>
       <c r="D2" t="n">
-        <v>530725.4205566853</v>
+        <v>530725.4205566848</v>
       </c>
       <c r="E2" t="n">
         <v>308435.0725121771</v>
       </c>
       <c r="F2" t="n">
-        <v>308435.0725121771</v>
+        <v>308435.0725121772</v>
       </c>
       <c r="G2" t="n">
-        <v>308435.0725121771</v>
+        <v>308435.072512177</v>
       </c>
       <c r="H2" t="n">
-        <v>308435.0725121772</v>
+        <v>308435.072512177</v>
       </c>
       <c r="I2" t="n">
-        <v>476139.1330836493</v>
+        <v>476139.1330836492</v>
       </c>
       <c r="J2" t="n">
-        <v>476139.1330836487</v>
+        <v>476139.133083649</v>
       </c>
       <c r="K2" t="n">
+        <v>476139.133083649</v>
+      </c>
+      <c r="L2" t="n">
         <v>476139.1330836492</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476139.1330836493</v>
       </c>
       <c r="M2" t="n">
         <v>308435.0725121772</v>
@@ -26429,7 +26429,7 @@
         <v>21204.89614823051</v>
       </c>
       <c r="F4" t="n">
-        <v>21204.89614823052</v>
+        <v>21204.89614823051</v>
       </c>
       <c r="G4" t="n">
         <v>21204.89614823051</v>
@@ -26450,16 +26450,16 @@
         <v>104724.650997316</v>
       </c>
       <c r="M4" t="n">
-        <v>21204.89614823054</v>
+        <v>21204.89614823051</v>
       </c>
       <c r="N4" t="n">
-        <v>21204.89614823054</v>
+        <v>21204.89614823051</v>
       </c>
       <c r="O4" t="n">
-        <v>21204.89614823054</v>
+        <v>21204.89614823051</v>
       </c>
       <c r="P4" t="n">
-        <v>21204.89614823052</v>
+        <v>21204.89614823051</v>
       </c>
     </row>
     <row r="5">
@@ -26490,25 +26490,25 @@
         <v>41815.40098331763</v>
       </c>
       <c r="I5" t="n">
-        <v>73176.46387987689</v>
+        <v>73176.46387987687</v>
       </c>
       <c r="J5" t="n">
-        <v>73176.46387987689</v>
+        <v>73176.46387987687</v>
       </c>
       <c r="K5" t="n">
-        <v>73176.46387987689</v>
+        <v>73176.46387987687</v>
       </c>
       <c r="L5" t="n">
-        <v>73176.46387987689</v>
+        <v>73176.46387987687</v>
       </c>
       <c r="M5" t="n">
-        <v>41815.40098331764</v>
+        <v>41815.40098331763</v>
       </c>
       <c r="N5" t="n">
-        <v>41815.40098331764</v>
+        <v>41815.40098331763</v>
       </c>
       <c r="O5" t="n">
-        <v>41815.40098331764</v>
+        <v>41815.40098331763</v>
       </c>
       <c r="P5" t="n">
         <v>41815.40098331764</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174358.7422745018</v>
+        <v>174337.0286330054</v>
       </c>
       <c r="C6" t="n">
-        <v>174358.7422745018</v>
+        <v>174337.0286330055</v>
       </c>
       <c r="D6" t="n">
-        <v>174358.7422745021</v>
+        <v>174337.0286330052</v>
       </c>
       <c r="E6" t="n">
-        <v>-293871.1999321875</v>
+        <v>-294493.6982981284</v>
       </c>
       <c r="F6" t="n">
-        <v>245414.775380629</v>
+        <v>244792.2770146881</v>
       </c>
       <c r="G6" t="n">
-        <v>245414.775380629</v>
+        <v>244792.2770146879</v>
       </c>
       <c r="H6" t="n">
-        <v>245414.7753806291</v>
+        <v>244792.2770146879</v>
       </c>
       <c r="I6" t="n">
-        <v>161074.116783497</v>
+        <v>160904.8726353167</v>
       </c>
       <c r="J6" t="n">
-        <v>298238.0182064559</v>
+        <v>298068.774058276</v>
       </c>
       <c r="K6" t="n">
-        <v>298238.0182064562</v>
+        <v>298068.774058276</v>
       </c>
       <c r="L6" t="n">
-        <v>298238.0182064564</v>
+        <v>298068.7740582761</v>
       </c>
       <c r="M6" t="n">
-        <v>245414.775380629</v>
+        <v>244792.2770146881</v>
       </c>
       <c r="N6" t="n">
-        <v>245414.7753806289</v>
+        <v>244792.2770146879</v>
       </c>
       <c r="O6" t="n">
-        <v>245414.7753806289</v>
+        <v>244792.277014688</v>
       </c>
       <c r="P6" t="n">
-        <v>245414.7753806291</v>
+        <v>244792.2770146881</v>
       </c>
     </row>
   </sheetData>
@@ -26822,13 +26822,13 @@
         <v>1031.613911071028</v>
       </c>
       <c r="M4" t="n">
-        <v>515.8069555355139</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N4" t="n">
-        <v>515.8069555355139</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="O4" t="n">
-        <v>515.8069555355139</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="P4" t="n">
         <v>515.8069555355139</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J12" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K12" t="n">
         <v>144.165317551548</v>
@@ -35497,13 +35497,13 @@
         <v>201.4515079650912</v>
       </c>
       <c r="M12" t="n">
-        <v>262.8450365067273</v>
+        <v>238.2616716566319</v>
       </c>
       <c r="N12" t="n">
         <v>246.9328044879843</v>
       </c>
       <c r="O12" t="n">
-        <v>515.8069555355138</v>
+        <v>222.2480852614988</v>
       </c>
       <c r="P12" t="n">
         <v>175.2003253267998</v>
@@ -35512,7 +35512,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R12" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>79.50642446800708</v>
       </c>
       <c r="L13" t="n">
-        <v>268.5721170442269</v>
+        <v>106.6496301410312</v>
       </c>
       <c r="M13" t="n">
         <v>515.8069555355138</v>
       </c>
       <c r="N13" t="n">
-        <v>513.6386465400071</v>
+        <v>457.0564696979558</v>
       </c>
       <c r="O13" t="n">
-        <v>99.7327636016805</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P13" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021747</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.7935129737709</v>
+        <v>200.6960355777093</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J15" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K15" t="n">
         <v>144.165317551548</v>
       </c>
       <c r="L15" t="n">
-        <v>413.0730357307111</v>
+        <v>201.4515079650912</v>
       </c>
       <c r="M15" t="n">
         <v>238.2616716566319</v>
@@ -35807,19 +35807,19 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K16" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L16" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M16" t="n">
-        <v>143.3094205386063</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N16" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O16" t="n">
-        <v>481.2502628978454</v>
+        <v>283.6600252149831</v>
       </c>
       <c r="P16" t="n">
         <v>398.1251078850736</v>
@@ -35901,13 +35901,13 @@
         <v>287.4328581379252</v>
       </c>
       <c r="P17" t="n">
-        <v>239.6542513562373</v>
+        <v>239.6542513562369</v>
       </c>
       <c r="Q17" t="n">
         <v>172.0632193728914</v>
       </c>
       <c r="R17" t="n">
-        <v>86.06869441248989</v>
+        <v>86.0686944124903</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.34196065395248</v>
+        <v>42.43117308150619</v>
       </c>
       <c r="J18" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K18" t="n">
         <v>144.165317551548</v>
       </c>
       <c r="L18" t="n">
-        <v>250.7195920416721</v>
+        <v>201.4515079650912</v>
       </c>
       <c r="M18" t="n">
         <v>238.2616716566319</v>
       </c>
       <c r="N18" t="n">
-        <v>515.8069555355138</v>
+        <v>246.9328044879843</v>
       </c>
       <c r="O18" t="n">
         <v>222.2480852614988</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K19" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800708</v>
       </c>
       <c r="L19" t="n">
         <v>486.8404317482685</v>
       </c>
       <c r="M19" t="n">
-        <v>296.9091623970874</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N19" t="n">
-        <v>111.5851891239666</v>
+        <v>395.3866919867023</v>
       </c>
       <c r="O19" t="n">
-        <v>99.7327636016805</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P19" t="n">
         <v>398.1251078850736</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.6960355777093</v>
+        <v>47.7935129737709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J20" t="n">
-        <v>134.2053002425976</v>
+        <v>134.2053002425981</v>
       </c>
       <c r="K20" t="n">
         <v>209.4672480648086</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.03620898164121</v>
+        <v>19.34196065395248</v>
       </c>
       <c r="J21" t="n">
-        <v>371.2909562119472</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K21" t="n">
         <v>144.165317551548</v>
@@ -36223,7 +36223,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R21" t="n">
-        <v>40.37053307086879</v>
+        <v>63.4597454984225</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>79.50642446800708</v>
       </c>
       <c r="L22" t="n">
-        <v>106.6496301410312</v>
+        <v>281.6787805980908</v>
       </c>
       <c r="M22" t="n">
         <v>515.8069555355138</v>
@@ -36296,7 +36296,7 @@
         <v>481.2502628978454</v>
       </c>
       <c r="P22" t="n">
-        <v>257.2389001872772</v>
+        <v>82.20974973021747</v>
       </c>
       <c r="Q22" t="n">
         <v>47.7935129737709</v>
@@ -36357,31 +36357,31 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J23" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452503</v>
       </c>
       <c r="K23" t="n">
-        <v>209.4672480648086</v>
+        <v>452.565827863844</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.613911071028</v>
+        <v>265.919750961158</v>
       </c>
       <c r="M23" t="n">
         <v>301.085226442049</v>
       </c>
       <c r="N23" t="n">
-        <v>1031.613911071028</v>
+        <v>306.7144172126735</v>
       </c>
       <c r="O23" t="n">
         <v>287.4328581379252</v>
       </c>
       <c r="P23" t="n">
-        <v>791.4477344579269</v>
+        <v>992.6632284775062</v>
       </c>
       <c r="Q23" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170682</v>
       </c>
       <c r="R23" t="n">
-        <v>86.06869441248989</v>
+        <v>239.8451169152688</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>19.34196065395248</v>
       </c>
       <c r="J24" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K24" t="n">
-        <v>462.3075526756585</v>
+        <v>144.165317551548</v>
       </c>
       <c r="L24" t="n">
         <v>201.4515079650912</v>
@@ -36460,7 +36460,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R24" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842227</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K25" t="n">
-        <v>245.6317704059686</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L25" t="n">
         <v>486.8404317482685</v>
@@ -36536,7 +36536,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q25" t="n">
-        <v>200.6960355777093</v>
+        <v>117.0409682691841</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J26" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452503</v>
       </c>
       <c r="K26" t="n">
-        <v>588.2027495889716</v>
+        <v>967.9675134813341</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.613911071028</v>
+        <v>265.919750961158</v>
       </c>
       <c r="M26" t="n">
         <v>301.085226442049</v>
@@ -36609,13 +36609,13 @@
         <v>306.7144172126735</v>
       </c>
       <c r="O26" t="n">
-        <v>1031.613911071028</v>
+        <v>287.4328581379252</v>
       </c>
       <c r="P26" t="n">
-        <v>239.6542513562369</v>
+        <v>477.2615428600157</v>
       </c>
       <c r="Q26" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170682</v>
       </c>
       <c r="R26" t="n">
         <v>239.8451169152688</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.03620898164121</v>
+        <v>19.34196065395248</v>
       </c>
       <c r="J27" t="n">
-        <v>76.84296941552533</v>
+        <v>371.895992112082</v>
       </c>
       <c r="K27" t="n">
         <v>144.165317551548</v>
@@ -36685,7 +36685,7 @@
         <v>238.2616716566319</v>
       </c>
       <c r="N27" t="n">
-        <v>541.3807912844056</v>
+        <v>246.9328044879843</v>
       </c>
       <c r="O27" t="n">
         <v>222.2480852614988</v>
@@ -36697,7 +36697,7 @@
         <v>108.9229702262614</v>
       </c>
       <c r="R27" t="n">
-        <v>40.37053307086879</v>
+        <v>63.45974549842227</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36767,13 +36767,13 @@
         <v>513.6386465400071</v>
       </c>
       <c r="O28" t="n">
-        <v>397.59519558932</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P28" t="n">
         <v>398.1251078850736</v>
       </c>
       <c r="Q28" t="n">
-        <v>200.6960355777093</v>
+        <v>117.0409682691841</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J29" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452503</v>
       </c>
       <c r="K29" t="n">
-        <v>601.855117893095</v>
+        <v>209.4672480648086</v>
       </c>
       <c r="L29" t="n">
-        <v>1031.613911071028</v>
+        <v>265.919750961158</v>
       </c>
       <c r="M29" t="n">
-        <v>1031.613911071028</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N29" t="n">
-        <v>306.7144172126735</v>
+        <v>549.8129970117091</v>
       </c>
       <c r="O29" t="n">
         <v>287.4328581379252</v>
       </c>
       <c r="P29" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775062</v>
       </c>
       <c r="Q29" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170682</v>
       </c>
       <c r="R29" t="n">
         <v>239.8451169152688</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J30" t="n">
         <v>76.84296941552533</v>
@@ -36928,13 +36928,13 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P30" t="n">
-        <v>493.3425604509104</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.9229702262614</v>
+        <v>296.8502496641926</v>
       </c>
       <c r="R30" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>39.77617086708312</v>
       </c>
       <c r="J32" t="n">
-        <v>134.2053002425976</v>
+        <v>529.8913797452503</v>
       </c>
       <c r="K32" t="n">
-        <v>209.4672480648086</v>
+        <v>452.565827863844</v>
       </c>
       <c r="L32" t="n">
-        <v>852.8787095437388</v>
+        <v>265.919750961158</v>
       </c>
       <c r="M32" t="n">
-        <v>1031.613911071028</v>
+        <v>301.085226442049</v>
       </c>
       <c r="N32" t="n">
-        <v>1031.613911071028</v>
+        <v>306.7144172126735</v>
       </c>
       <c r="O32" t="n">
         <v>287.4328581379252</v>
       </c>
       <c r="P32" t="n">
-        <v>239.6542513562369</v>
+        <v>992.6632284775062</v>
       </c>
       <c r="Q32" t="n">
-        <v>172.0632193728914</v>
+        <v>668.8802975170682</v>
       </c>
       <c r="R32" t="n">
-        <v>86.06869441248989</v>
+        <v>239.8451169152688</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O33" t="n">
-        <v>516.6960720579207</v>
+        <v>222.2480852614988</v>
       </c>
       <c r="P33" t="n">
         <v>175.2003253267998</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.9229702262614</v>
+        <v>296.8502496641926</v>
       </c>
       <c r="R33" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>486.8404317482685</v>
       </c>
       <c r="M34" t="n">
-        <v>530.6945073118877</v>
+        <v>447.0394400033622</v>
       </c>
       <c r="N34" t="n">
         <v>513.6386465400071</v>
@@ -37247,7 +37247,7 @@
         <v>398.1251078850736</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.0409682691841</v>
+        <v>200.6960355777093</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>172.0632193728914</v>
       </c>
       <c r="R35" t="n">
-        <v>86.06869441249076</v>
+        <v>86.06869441248989</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J36" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K36" t="n">
         <v>144.165317551548</v>
@@ -37405,10 +37405,10 @@
         <v>175.2003253267998</v>
       </c>
       <c r="Q36" t="n">
-        <v>427.0652053503716</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R36" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>119.2116090216332</v>
+        <v>40.50280432646061</v>
       </c>
       <c r="K37" t="n">
-        <v>79.50642446800708</v>
+        <v>277.1698280695583</v>
       </c>
       <c r="L37" t="n">
-        <v>106.6496301410312</v>
+        <v>486.8404317482685</v>
       </c>
       <c r="M37" t="n">
-        <v>515.8069555355139</v>
+        <v>112.9819007837849</v>
       </c>
       <c r="N37" t="n">
         <v>513.6386465400071</v>
       </c>
       <c r="O37" t="n">
-        <v>261.6552505048765</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P37" t="n">
-        <v>398.1251078850736</v>
+        <v>82.20974973021747</v>
       </c>
       <c r="Q37" t="n">
         <v>47.7935129737709</v>
@@ -37557,7 +37557,7 @@
         <v>306.7144172126735</v>
       </c>
       <c r="O38" t="n">
-        <v>287.432858137926</v>
+        <v>287.4328581379252</v>
       </c>
       <c r="P38" t="n">
         <v>239.6542513562369</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J39" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K39" t="n">
         <v>144.165317551548</v>
@@ -37639,13 +37639,13 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P39" t="n">
-        <v>493.3425604509104</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q39" t="n">
         <v>108.9229702262614</v>
       </c>
       <c r="R39" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>40.50280432646061</v>
+        <v>119.2116090216332</v>
       </c>
       <c r="K40" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800708</v>
       </c>
       <c r="L40" t="n">
         <v>106.6496301410312</v>
       </c>
       <c r="M40" t="n">
-        <v>515.8069555355139</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N40" t="n">
         <v>513.6386465400071</v>
       </c>
       <c r="O40" t="n">
-        <v>406.4990001084184</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P40" t="n">
         <v>82.20974973021747</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.7935129737709</v>
+        <v>144.1138587356579</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>209.4672480648086</v>
       </c>
       <c r="L41" t="n">
-        <v>265.919750961159</v>
+        <v>265.9197509611585</v>
       </c>
       <c r="M41" t="n">
         <v>301.085226442049</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J42" t="n">
-        <v>76.84296941552533</v>
+        <v>264.7702488534565</v>
       </c>
       <c r="K42" t="n">
         <v>144.165317551548</v>
@@ -37873,16 +37873,16 @@
         <v>246.9328044879843</v>
       </c>
       <c r="O42" t="n">
-        <v>515.8069555355139</v>
+        <v>222.2480852614988</v>
       </c>
       <c r="P42" t="n">
         <v>175.2003253267998</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.5063350763565</v>
+        <v>108.9229702262614</v>
       </c>
       <c r="R42" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>119.2116090216332</v>
       </c>
       <c r="K43" t="n">
-        <v>79.50642446800708</v>
+        <v>329.286837714494</v>
       </c>
       <c r="L43" t="n">
-        <v>106.6496301410312</v>
+        <v>267.9426386098422</v>
       </c>
       <c r="M43" t="n">
-        <v>515.8069555355139</v>
+        <v>515.8069555355138</v>
       </c>
       <c r="N43" t="n">
-        <v>513.6386465400071</v>
+        <v>111.5851891239666</v>
       </c>
       <c r="O43" t="n">
-        <v>481.2502628978454</v>
+        <v>99.7327636016805</v>
       </c>
       <c r="P43" t="n">
-        <v>178.5300954921047</v>
+        <v>398.1251078850736</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.7935129737709</v>
+        <v>200.6960355777093</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.34196065395248</v>
+        <v>43.03620898164121</v>
       </c>
       <c r="J45" t="n">
         <v>76.84296941552533</v>
@@ -38113,13 +38113,13 @@
         <v>222.2480852614988</v>
       </c>
       <c r="P45" t="n">
-        <v>493.3425604509104</v>
+        <v>175.2003253267998</v>
       </c>
       <c r="Q45" t="n">
-        <v>108.9229702262614</v>
+        <v>296.8502496641921</v>
       </c>
       <c r="R45" t="n">
-        <v>40.37053307086879</v>
+        <v>146.8912404293595</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>40.50280432646061</v>
       </c>
       <c r="K46" t="n">
-        <v>329.286837714494</v>
+        <v>79.50642446800708</v>
       </c>
       <c r="L46" t="n">
-        <v>413.4158666477688</v>
+        <v>281.6787805980912</v>
       </c>
       <c r="M46" t="n">
         <v>515.8069555355139</v>
@@ -38189,7 +38189,7 @@
         <v>513.6386465400071</v>
       </c>
       <c r="O46" t="n">
-        <v>99.7327636016805</v>
+        <v>481.2502628978454</v>
       </c>
       <c r="P46" t="n">
         <v>82.20974973021747</v>
